--- a/UK_CoP_TitleLists/TestUpload.xlsx
+++ b/UK_CoP_TitleLists/TestUpload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9D4B02A2393526DE/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41ADE2C-646E-43BD-B274-6C3FBEB385E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B41ADE2C-646E-43BD-B274-6C3FBEB385E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B2452A-8121-4116-93F9-D7C9FF102DC0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
+    <workbookView xWindow="37245" yWindow="0" windowWidth="14370" windowHeight="7275" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal List" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="826">
   <si>
     <t>Journal Title</t>
   </si>
@@ -2510,13 +2510,19 @@
   </si>
   <si>
     <t>1234-5678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test2 </t>
+  </si>
+  <si>
+    <t>Test3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2593,6 +2599,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2727,7 +2739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2790,6 +2802,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3837,8 +3852,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E20557D-7D01-4DDD-A3E5-4BE8969774E1}" name="Table1" displayName="Table1" ref="A1:H578" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
-  <autoFilter ref="A1:H578" xr:uid="{4E20557D-7D01-4DDD-A3E5-4BE8969774E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E20557D-7D01-4DDD-A3E5-4BE8969774E1}" name="Table1" displayName="Table1" ref="A1:H579" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="A1:H579" xr:uid="{4E20557D-7D01-4DDD-A3E5-4BE8969774E1}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{60C9D913-7610-4E89-96C3-79D540E13C81}" name="Journal Title" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{157A6765-6BEB-45C8-B059-14466701E200}" name="Imprint" dataDxfId="28"/>
@@ -4203,10 +4218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4A9487-D5B7-4CE1-99CD-1488FAF55674}">
-  <dimension ref="A1:K578"/>
+  <dimension ref="A1:K579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4265,45 +4280,33 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>821</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>45</v>
-      </c>
+      <c r="A3" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>825</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>821</v>
@@ -4314,18 +4317,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>821</v>
@@ -4336,20 +4343,18 @@
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>821</v>
@@ -4360,18 +4365,20 @@
     </row>
     <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>821</v>
@@ -4382,20 +4389,18 @@
     </row>
     <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>58</v>
-      </c>
+      <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>821</v>
@@ -4403,22 +4408,23 @@
       <c r="H8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>821</v>
@@ -4426,25 +4432,22 @@
       <c r="H9" s="28" t="s">
         <v>45</v>
       </c>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>821</v>
@@ -4455,18 +4458,22 @@
     </row>
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="E11" s="23" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>821</v>
@@ -4477,7 +4484,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>44</v>
@@ -4499,20 +4506,18 @@
     </row>
     <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>68</v>
-      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>821</v>
@@ -4523,18 +4528,20 @@
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>821</v>
@@ -4545,7 +4552,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>44</v>
@@ -4567,20 +4574,18 @@
     </row>
     <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>73</v>
-      </c>
+      <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>821</v>
@@ -4591,18 +4596,20 @@
     </row>
     <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>821</v>
@@ -4613,22 +4620,18 @@
     </row>
     <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>78</v>
-      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="23" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>821</v>
@@ -4639,18 +4642,22 @@
     </row>
     <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>78</v>
+      </c>
       <c r="E19" s="23" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>821</v>
@@ -4661,85 +4668,85 @@
     </row>
     <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>82</v>
-      </c>
+      <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F21" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>821</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+      <c r="G21" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>821</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>821</v>
-      </c>
-      <c r="H22" s="28" t="s">
+      <c r="B22" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="H22" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="23" t="s">
+        <v>86</v>
+      </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>34</v>
@@ -4753,7 +4760,7 @@
     </row>
     <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>44</v>
@@ -4775,7 +4782,7 @@
     </row>
     <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>44</v>
@@ -4797,7 +4804,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>44</v>
@@ -4819,7 +4826,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>44</v>
@@ -4841,19 +4848,15 @@
     </row>
     <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="23" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>34</v>
@@ -4867,15 +4870,19 @@
     </row>
     <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>95</v>
+      </c>
       <c r="E29" s="23" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>34</v>
@@ -4889,19 +4896,15 @@
     </row>
     <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>100</v>
-      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="23" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>34</v>
@@ -4915,15 +4918,19 @@
     </row>
     <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="E31" s="23" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>34</v>
@@ -4937,19 +4944,15 @@
     </row>
     <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>105</v>
-      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="23" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>34</v>
@@ -4963,15 +4966,19 @@
     </row>
     <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>105</v>
+      </c>
       <c r="E33" s="23" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>34</v>
@@ -4985,7 +4992,7 @@
     </row>
     <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>44</v>
@@ -5007,19 +5014,15 @@
     </row>
     <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>110</v>
-      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="23" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>34</v>
@@ -5033,15 +5036,19 @@
     </row>
     <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="E36" s="23" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>34</v>
@@ -5055,17 +5062,15 @@
     </row>
     <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>114</v>
-      </c>
+      <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>34</v>
@@ -5079,15 +5084,17 @@
     </row>
     <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F38" s="23" t="s">
         <v>34</v>
@@ -5101,19 +5108,15 @@
     </row>
     <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>119</v>
-      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="23" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>34</v>
@@ -5127,15 +5130,19 @@
     </row>
     <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>119</v>
+      </c>
       <c r="E40" s="23" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>34</v>
@@ -5149,7 +5156,7 @@
     </row>
     <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>44</v>
@@ -5171,7 +5178,7 @@
     </row>
     <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>44</v>
@@ -5193,7 +5200,7 @@
     </row>
     <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>44</v>
@@ -5215,7 +5222,7 @@
     </row>
     <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>44</v>
@@ -5237,7 +5244,7 @@
     </row>
     <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" s="23" t="s">
         <v>44</v>
@@ -5259,7 +5266,7 @@
     </row>
     <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>44</v>
@@ -5281,7 +5288,7 @@
     </row>
     <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>44</v>
@@ -5303,7 +5310,7 @@
     </row>
     <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>44</v>
@@ -5325,7 +5332,7 @@
     </row>
     <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>44</v>
@@ -5347,7 +5354,7 @@
     </row>
     <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>44</v>
@@ -5369,7 +5376,7 @@
     </row>
     <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>44</v>
@@ -5391,7 +5398,7 @@
     </row>
     <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B52" s="23" t="s">
         <v>44</v>
@@ -5413,7 +5420,7 @@
     </row>
     <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>44</v>
@@ -5435,7 +5442,7 @@
     </row>
     <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>44</v>
@@ -5457,7 +5464,7 @@
     </row>
     <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B55" s="23" t="s">
         <v>44</v>
@@ -5479,7 +5486,7 @@
     </row>
     <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" s="23" t="s">
         <v>44</v>
@@ -5501,7 +5508,7 @@
     </row>
     <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>44</v>
@@ -5523,7 +5530,7 @@
     </row>
     <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>44</v>
@@ -5545,7 +5552,7 @@
     </row>
     <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>44</v>
@@ -5567,7 +5574,7 @@
     </row>
     <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" s="23" t="s">
         <v>44</v>
@@ -5589,7 +5596,7 @@
     </row>
     <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="23" t="s">
         <v>44</v>
@@ -5611,7 +5618,7 @@
     </row>
     <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" s="23" t="s">
         <v>44</v>
@@ -5633,7 +5640,7 @@
     </row>
     <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63" s="23" t="s">
         <v>44</v>
@@ -5655,7 +5662,7 @@
     </row>
     <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64" s="23" t="s">
         <v>44</v>
@@ -5677,7 +5684,7 @@
     </row>
     <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B65" s="23" t="s">
         <v>44</v>
@@ -5699,7 +5706,7 @@
     </row>
     <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B66" s="23" t="s">
         <v>44</v>
@@ -5721,7 +5728,7 @@
     </row>
     <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B67" s="23" t="s">
         <v>44</v>
@@ -5743,7 +5750,7 @@
     </row>
     <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" s="23" t="s">
         <v>44</v>
@@ -5765,7 +5772,7 @@
     </row>
     <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B69" s="23" t="s">
         <v>44</v>
@@ -5787,7 +5794,7 @@
     </row>
     <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B70" s="23" t="s">
         <v>44</v>
@@ -5809,19 +5816,15 @@
     </row>
     <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B71" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>154</v>
-      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="23" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="F71" s="23" t="s">
         <v>34</v>
@@ -5835,15 +5838,19 @@
     </row>
     <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B72" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
+      <c r="C72" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>154</v>
+      </c>
       <c r="E72" s="23" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="F72" s="23" t="s">
         <v>34</v>
@@ -5857,19 +5864,15 @@
     </row>
     <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B73" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>159</v>
-      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
       <c r="E73" s="23" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="F73" s="23" t="s">
         <v>34</v>
@@ -5883,15 +5886,19 @@
     </row>
     <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B74" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="C74" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>159</v>
+      </c>
       <c r="E74" s="23" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>34</v>
@@ -5905,19 +5912,15 @@
     </row>
     <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B75" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>164</v>
-      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="23" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="F75" s="23" t="s">
         <v>34</v>
@@ -5931,15 +5934,19 @@
     </row>
     <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B76" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="C76" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>164</v>
+      </c>
       <c r="E76" s="23" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>34</v>
@@ -5953,19 +5960,15 @@
     </row>
     <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B77" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>169</v>
-      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="23" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="F77" s="23" t="s">
         <v>34</v>
@@ -5979,15 +5982,19 @@
     </row>
     <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B78" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
+      <c r="C78" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>169</v>
+      </c>
       <c r="E78" s="23" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="F78" s="23" t="s">
         <v>34</v>
@@ -6001,19 +6008,15 @@
     </row>
     <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B79" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>174</v>
-      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="23" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="F79" s="23" t="s">
         <v>34</v>
@@ -6027,15 +6030,19 @@
     </row>
     <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B80" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
+      <c r="C80" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>174</v>
+      </c>
       <c r="E80" s="23" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="F80" s="23" t="s">
         <v>34</v>
@@ -6049,19 +6056,15 @@
     </row>
     <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B81" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>179</v>
-      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="23" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="F81" s="23" t="s">
         <v>34</v>
@@ -6075,15 +6078,19 @@
     </row>
     <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B82" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
+      <c r="C82" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>179</v>
+      </c>
       <c r="E82" s="23" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="F82" s="23" t="s">
         <v>34</v>
@@ -6097,19 +6104,15 @@
     </row>
     <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B83" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>184</v>
-      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
       <c r="E83" s="23" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="F83" s="23" t="s">
         <v>34</v>
@@ -6123,15 +6126,19 @@
     </row>
     <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B84" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+      <c r="C84" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>184</v>
+      </c>
       <c r="E84" s="23" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="F84" s="23" t="s">
         <v>34</v>
@@ -6145,19 +6152,15 @@
     </row>
     <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B85" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>189</v>
-      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="23" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="F85" s="23" t="s">
         <v>34</v>
@@ -6171,15 +6174,19 @@
     </row>
     <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B86" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
+      <c r="C86" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>189</v>
+      </c>
       <c r="E86" s="23" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="F86" s="23" t="s">
         <v>34</v>
@@ -6193,17 +6200,15 @@
     </row>
     <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B87" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="23" t="s">
-        <v>193</v>
-      </c>
+      <c r="C87" s="23"/>
       <c r="D87" s="23"/>
       <c r="E87" s="23" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="F87" s="23" t="s">
         <v>34</v>
@@ -6217,15 +6222,17 @@
     </row>
     <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B88" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="23"/>
+      <c r="C88" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="D88" s="23"/>
       <c r="E88" s="23" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="F88" s="23" t="s">
         <v>34</v>
@@ -6239,19 +6246,15 @@
     </row>
     <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>198</v>
-      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
       <c r="E89" s="23" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="F89" s="23" t="s">
         <v>34</v>
@@ -6265,15 +6268,19 @@
     </row>
     <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B90" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
+      <c r="C90" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="E90" s="23" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="F90" s="23" t="s">
         <v>34</v>
@@ -6287,19 +6294,15 @@
     </row>
     <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B91" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>203</v>
-      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
       <c r="E91" s="23" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="F91" s="23" t="s">
         <v>34</v>
@@ -6313,15 +6316,19 @@
     </row>
     <row r="92" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B92" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
+      <c r="C92" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>203</v>
+      </c>
       <c r="E92" s="23" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="F92" s="23" t="s">
         <v>34</v>
@@ -6335,19 +6342,15 @@
     </row>
     <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B93" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C93" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>208</v>
-      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
       <c r="E93" s="23" t="s">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="F93" s="23" t="s">
         <v>34</v>
@@ -6361,15 +6364,19 @@
     </row>
     <row r="94" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B94" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
+      <c r="C94" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>208</v>
+      </c>
       <c r="E94" s="23" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>34</v>
@@ -6383,19 +6390,15 @@
     </row>
     <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B95" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>213</v>
-      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="23" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="F95" s="23" t="s">
         <v>34</v>
@@ -6409,15 +6412,19 @@
     </row>
     <row r="96" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B96" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
+      <c r="C96" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>213</v>
+      </c>
       <c r="E96" s="23" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="F96" s="23" t="s">
         <v>34</v>
@@ -6431,19 +6438,15 @@
     </row>
     <row r="97" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B97" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>218</v>
-      </c>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
       <c r="E97" s="23" t="s">
-        <v>216</v>
+        <v>43</v>
       </c>
       <c r="F97" s="23" t="s">
         <v>34</v>
@@ -6457,15 +6460,19 @@
     </row>
     <row r="98" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B98" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
+      <c r="C98" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>218</v>
+      </c>
       <c r="E98" s="23" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="F98" s="23" t="s">
         <v>34</v>
@@ -6479,17 +6486,15 @@
     </row>
     <row r="99" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B99" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C99" s="23" t="s">
-        <v>222</v>
-      </c>
+      <c r="C99" s="23"/>
       <c r="D99" s="23"/>
       <c r="E99" s="23" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>34</v>
@@ -6503,15 +6508,17 @@
     </row>
     <row r="100" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B100" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="23"/>
+      <c r="C100" s="23" t="s">
+        <v>222</v>
+      </c>
       <c r="D100" s="23"/>
       <c r="E100" s="23" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="F100" s="23" t="s">
         <v>34</v>
@@ -6525,7 +6532,7 @@
     </row>
     <row r="101" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>44</v>
@@ -6547,19 +6554,15 @@
     </row>
     <row r="102" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B102" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C102" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>228</v>
-      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
       <c r="E102" s="23" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="F102" s="23" t="s">
         <v>34</v>
@@ -6573,15 +6576,19 @@
     </row>
     <row r="103" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B103" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
+      <c r="C103" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>228</v>
+      </c>
       <c r="E103" s="23" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="F103" s="23" t="s">
         <v>34</v>
@@ -6595,19 +6602,15 @@
     </row>
     <row r="104" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B104" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>233</v>
-      </c>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
       <c r="E104" s="23" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="F104" s="23" t="s">
         <v>34</v>
@@ -6621,15 +6624,19 @@
     </row>
     <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B105" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
+      <c r="C105" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>233</v>
+      </c>
       <c r="E105" s="23" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="F105" s="23" t="s">
         <v>34</v>
@@ -6643,19 +6650,15 @@
     </row>
     <row r="106" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B106" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>238</v>
-      </c>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
       <c r="E106" s="23" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="F106" s="23" t="s">
         <v>34</v>
@@ -6669,15 +6672,19 @@
     </row>
     <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="27" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B107" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
+      <c r="C107" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>238</v>
+      </c>
       <c r="E107" s="23" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="F107" s="23" t="s">
         <v>34</v>
@@ -6691,19 +6698,15 @@
     </row>
     <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B108" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>243</v>
-      </c>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
       <c r="E108" s="23" t="s">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="F108" s="23" t="s">
         <v>34</v>
@@ -6717,15 +6720,19 @@
     </row>
     <row r="109" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="27" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B109" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
+      <c r="C109" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>243</v>
+      </c>
       <c r="E109" s="23" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="F109" s="23" t="s">
         <v>34</v>
@@ -6739,19 +6746,15 @@
     </row>
     <row r="110" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B110" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>248</v>
-      </c>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
       <c r="E110" s="23" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>34</v>
@@ -6765,15 +6768,19 @@
     </row>
     <row r="111" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="27" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B111" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
+      <c r="C111" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>248</v>
+      </c>
       <c r="E111" s="23" t="s">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="F111" s="23" t="s">
         <v>34</v>
@@ -6787,17 +6794,15 @@
     </row>
     <row r="112" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B112" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C112" s="23" t="s">
-        <v>252</v>
-      </c>
+      <c r="C112" s="23"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23" t="s">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="F112" s="23" t="s">
         <v>34</v>
@@ -6811,15 +6816,17 @@
     </row>
     <row r="113" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="27" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B113" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C113" s="23"/>
+      <c r="C113" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="D113" s="23"/>
       <c r="E113" s="23" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="F113" s="23" t="s">
         <v>34</v>
@@ -6833,19 +6840,15 @@
     </row>
     <row r="114" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B114" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C114" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D114" s="23" t="s">
-        <v>257</v>
-      </c>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
       <c r="E114" s="23" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="F114" s="23" t="s">
         <v>34</v>
@@ -6859,15 +6862,19 @@
     </row>
     <row r="115" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B115" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
+      <c r="C115" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>257</v>
+      </c>
       <c r="E115" s="23" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="F115" s="23" t="s">
         <v>34</v>
@@ -6881,19 +6888,15 @@
     </row>
     <row r="116" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B116" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>262</v>
-      </c>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
       <c r="E116" s="23" t="s">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="F116" s="23" t="s">
         <v>34</v>
@@ -6907,15 +6910,19 @@
     </row>
     <row r="117" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B117" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
+      <c r="C117" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>262</v>
+      </c>
       <c r="E117" s="23" t="s">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="F117" s="23" t="s">
         <v>34</v>
@@ -6929,19 +6936,15 @@
     </row>
     <row r="118" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B118" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C118" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>267</v>
-      </c>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
       <c r="E118" s="23" t="s">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="F118" s="23" t="s">
         <v>34</v>
@@ -6955,15 +6958,19 @@
     </row>
     <row r="119" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B119" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
+      <c r="C119" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>267</v>
+      </c>
       <c r="E119" s="23" t="s">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="F119" s="23" t="s">
         <v>34</v>
@@ -6977,19 +6984,15 @@
     </row>
     <row r="120" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C120" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D120" s="23" t="s">
-        <v>272</v>
-      </c>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
       <c r="E120" s="23" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="F120" s="23" t="s">
         <v>34</v>
@@ -7003,15 +7006,19 @@
     </row>
     <row r="121" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="27" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B121" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
+      <c r="C121" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>272</v>
+      </c>
       <c r="E121" s="23" t="s">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="F121" s="23" t="s">
         <v>34</v>
@@ -7025,19 +7032,15 @@
     </row>
     <row r="122" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B122" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>277</v>
-      </c>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
       <c r="E122" s="23" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="F122" s="23" t="s">
         <v>34</v>
@@ -7051,15 +7054,19 @@
     </row>
     <row r="123" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B123" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
+      <c r="C123" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>277</v>
+      </c>
       <c r="E123" s="23" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="F123" s="23" t="s">
         <v>34</v>
@@ -7073,19 +7080,15 @@
     </row>
     <row r="124" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B124" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C124" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>282</v>
-      </c>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
       <c r="E124" s="23" t="s">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="F124" s="23" t="s">
         <v>34</v>
@@ -7099,15 +7102,19 @@
     </row>
     <row r="125" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B125" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
+      <c r="C125" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>282</v>
+      </c>
       <c r="E125" s="23" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="F125" s="23" t="s">
         <v>34</v>
@@ -7121,19 +7128,15 @@
     </row>
     <row r="126" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B126" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C126" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D126" s="23" t="s">
-        <v>287</v>
-      </c>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
       <c r="E126" s="23" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="F126" s="23" t="s">
         <v>34</v>
@@ -7147,15 +7150,19 @@
     </row>
     <row r="127" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="27" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B127" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
+      <c r="C127" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>287</v>
+      </c>
       <c r="E127" s="23" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="F127" s="23" t="s">
         <v>34</v>
@@ -7169,17 +7176,15 @@
     </row>
     <row r="128" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B128" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C128" s="23" t="s">
-        <v>291</v>
-      </c>
+      <c r="C128" s="23"/>
       <c r="D128" s="23"/>
       <c r="E128" s="23" t="s">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="F128" s="23" t="s">
         <v>34</v>
@@ -7193,15 +7198,17 @@
     </row>
     <row r="129" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B129" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C129" s="23"/>
+      <c r="C129" s="23" t="s">
+        <v>291</v>
+      </c>
       <c r="D129" s="23"/>
       <c r="E129" s="23" t="s">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="F129" s="23" t="s">
         <v>34</v>
@@ -7215,17 +7222,15 @@
     </row>
     <row r="130" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B130" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C130" s="23" t="s">
-        <v>295</v>
-      </c>
+      <c r="C130" s="23"/>
       <c r="D130" s="23"/>
       <c r="E130" s="23" t="s">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="F130" s="23" t="s">
         <v>34</v>
@@ -7239,15 +7244,17 @@
     </row>
     <row r="131" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B131" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C131" s="23"/>
+      <c r="C131" s="23" t="s">
+        <v>295</v>
+      </c>
       <c r="D131" s="23"/>
       <c r="E131" s="23" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="F131" s="23" t="s">
         <v>34</v>
@@ -7261,19 +7268,15 @@
     </row>
     <row r="132" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>300</v>
-      </c>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="23" t="s">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="F132" s="23" t="s">
         <v>34</v>
@@ -7287,15 +7290,19 @@
     </row>
     <row r="133" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
+      <c r="C133" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>300</v>
+      </c>
       <c r="E133" s="23" t="s">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="F133" s="23" t="s">
         <v>34</v>
@@ -7309,19 +7316,15 @@
     </row>
     <row r="134" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C134" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>305</v>
-      </c>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
       <c r="E134" s="23" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="F134" s="23" t="s">
         <v>34</v>
@@ -7335,15 +7338,19 @@
     </row>
     <row r="135" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="27" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
+      <c r="C135" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>305</v>
+      </c>
       <c r="E135" s="23" t="s">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c r="F135" s="23" t="s">
         <v>34</v>
@@ -7357,17 +7364,15 @@
     </row>
     <row r="136" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B136" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C136" s="23" t="s">
-        <v>309</v>
-      </c>
+      <c r="C136" s="23"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23" t="s">
-        <v>308</v>
+        <v>43</v>
       </c>
       <c r="F136" s="23" t="s">
         <v>34</v>
@@ -7381,15 +7386,17 @@
     </row>
     <row r="137" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="27" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B137" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="23"/>
+      <c r="C137" s="23" t="s">
+        <v>309</v>
+      </c>
       <c r="D137" s="23"/>
       <c r="E137" s="23" t="s">
-        <v>43</v>
+        <v>308</v>
       </c>
       <c r="F137" s="23" t="s">
         <v>34</v>
@@ -7403,19 +7410,15 @@
     </row>
     <row r="138" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B138" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C138" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D138" s="23" t="s">
-        <v>314</v>
-      </c>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
       <c r="E138" s="23" t="s">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="F138" s="23" t="s">
         <v>34</v>
@@ -7429,15 +7432,19 @@
     </row>
     <row r="139" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B139" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
+      <c r="C139" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E139" s="23" t="s">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="F139" s="23" t="s">
         <v>34</v>
@@ -7451,19 +7458,15 @@
     </row>
     <row r="140" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B140" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C140" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>319</v>
-      </c>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
       <c r="E140" s="23" t="s">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="F140" s="23" t="s">
         <v>34</v>
@@ -7477,15 +7480,19 @@
     </row>
     <row r="141" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B141" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C141" s="23"/>
-      <c r="D141" s="23"/>
+      <c r="C141" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>319</v>
+      </c>
       <c r="E141" s="23" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="F141" s="23" t="s">
         <v>34</v>
@@ -7499,19 +7506,15 @@
     </row>
     <row r="142" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B142" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>324</v>
-      </c>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
       <c r="E142" s="23" t="s">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="F142" s="23" t="s">
         <v>34</v>
@@ -7525,15 +7528,19 @@
     </row>
     <row r="143" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B143" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
+      <c r="C143" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>324</v>
+      </c>
       <c r="E143" s="23" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="F143" s="23" t="s">
         <v>34</v>
@@ -7547,19 +7554,15 @@
     </row>
     <row r="144" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B144" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C144" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="D144" s="23" t="s">
-        <v>329</v>
-      </c>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
       <c r="E144" s="23" t="s">
-        <v>327</v>
+        <v>43</v>
       </c>
       <c r="F144" s="23" t="s">
         <v>34</v>
@@ -7573,15 +7576,19 @@
     </row>
     <row r="145" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B145" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="23"/>
-      <c r="D145" s="23"/>
+      <c r="C145" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D145" s="23" t="s">
+        <v>329</v>
+      </c>
       <c r="E145" s="23" t="s">
-        <v>43</v>
+        <v>327</v>
       </c>
       <c r="F145" s="23" t="s">
         <v>34</v>
@@ -7595,7 +7602,7 @@
     </row>
     <row r="146" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B146" s="23" t="s">
         <v>44</v>
@@ -7617,7 +7624,7 @@
     </row>
     <row r="147" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B147" s="23" t="s">
         <v>44</v>
@@ -7639,17 +7646,15 @@
     </row>
     <row r="148" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B148" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C148" s="23" t="s">
-        <v>335</v>
-      </c>
+      <c r="C148" s="23"/>
       <c r="D148" s="23"/>
       <c r="E148" s="23" t="s">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="F148" s="23" t="s">
         <v>34</v>
@@ -7663,15 +7668,17 @@
     </row>
     <row r="149" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="27" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B149" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C149" s="23"/>
+      <c r="C149" s="23" t="s">
+        <v>335</v>
+      </c>
       <c r="D149" s="23"/>
       <c r="E149" s="23" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="F149" s="23" t="s">
         <v>34</v>
@@ -7685,7 +7692,7 @@
     </row>
     <row r="150" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B150" s="23" t="s">
         <v>44</v>
@@ -7707,17 +7714,15 @@
     </row>
     <row r="151" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B151" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C151" s="23" t="s">
-        <v>340</v>
-      </c>
+      <c r="C151" s="23"/>
       <c r="D151" s="23"/>
       <c r="E151" s="23" t="s">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="F151" s="23" t="s">
         <v>34</v>
@@ -7731,15 +7736,17 @@
     </row>
     <row r="152" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="27" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B152" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="23"/>
+      <c r="C152" s="23" t="s">
+        <v>340</v>
+      </c>
       <c r="D152" s="23"/>
       <c r="E152" s="23" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
       <c r="F152" s="23" t="s">
         <v>34</v>
@@ -7753,7 +7760,7 @@
     </row>
     <row r="153" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B153" s="23" t="s">
         <v>44</v>
@@ -7775,19 +7782,15 @@
     </row>
     <row r="154" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B154" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C154" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>346</v>
-      </c>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
       <c r="E154" s="23" t="s">
-        <v>344</v>
+        <v>43</v>
       </c>
       <c r="F154" s="23" t="s">
         <v>34</v>
@@ -7801,15 +7804,19 @@
     </row>
     <row r="155" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B155" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
+      <c r="C155" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>346</v>
+      </c>
       <c r="E155" s="23" t="s">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="F155" s="23" t="s">
         <v>34</v>
@@ -7823,17 +7830,15 @@
     </row>
     <row r="156" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B156" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C156" s="23"/>
-      <c r="D156" s="23" t="s">
-        <v>350</v>
-      </c>
+      <c r="D156" s="23"/>
       <c r="E156" s="23" t="s">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="F156" s="23" t="s">
         <v>34</v>
@@ -7847,15 +7852,17 @@
     </row>
     <row r="157" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B157" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
+      <c r="D157" s="23" t="s">
+        <v>350</v>
+      </c>
       <c r="E157" s="23" t="s">
-        <v>43</v>
+        <v>349</v>
       </c>
       <c r="F157" s="23" t="s">
         <v>34</v>
@@ -7869,17 +7876,15 @@
     </row>
     <row r="158" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B158" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C158" s="23"/>
-      <c r="D158" s="23" t="s">
-        <v>354</v>
-      </c>
+      <c r="D158" s="23"/>
       <c r="E158" s="23" t="s">
-        <v>353</v>
+        <v>43</v>
       </c>
       <c r="F158" s="23" t="s">
         <v>34</v>
@@ -7893,15 +7898,17 @@
     </row>
     <row r="159" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B159" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
+      <c r="D159" s="23" t="s">
+        <v>354</v>
+      </c>
       <c r="E159" s="23" t="s">
-        <v>43</v>
+        <v>353</v>
       </c>
       <c r="F159" s="23" t="s">
         <v>34</v>
@@ -7915,7 +7922,7 @@
     </row>
     <row r="160" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B160" s="23" t="s">
         <v>44</v>
@@ -7937,7 +7944,7 @@
     </row>
     <row r="161" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B161" s="23" t="s">
         <v>44</v>
@@ -7959,7 +7966,7 @@
     </row>
     <row r="162" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B162" s="23" t="s">
         <v>44</v>
@@ -7981,19 +7988,15 @@
     </row>
     <row r="163" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B163" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C163" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="D163" s="23" t="s">
-        <v>362</v>
-      </c>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
       <c r="E163" s="23" t="s">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="F163" s="23" t="s">
         <v>34</v>
@@ -8007,15 +8010,19 @@
     </row>
     <row r="164" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="27" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B164" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C164" s="23"/>
-      <c r="D164" s="23"/>
+      <c r="C164" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>362</v>
+      </c>
       <c r="E164" s="23" t="s">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="F164" s="23" t="s">
         <v>34</v>
@@ -8029,7 +8036,7 @@
     </row>
     <row r="165" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B165" s="23" t="s">
         <v>44</v>
@@ -8051,19 +8058,15 @@
     </row>
     <row r="166" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B166" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C166" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="D166" s="23" t="s">
-        <v>368</v>
-      </c>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
       <c r="E166" s="23" t="s">
-        <v>366</v>
+        <v>43</v>
       </c>
       <c r="F166" s="23" t="s">
         <v>34</v>
@@ -8077,15 +8080,19 @@
     </row>
     <row r="167" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="27" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B167" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C167" s="23"/>
-      <c r="D167" s="23"/>
+      <c r="C167" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>368</v>
+      </c>
       <c r="E167" s="23" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="F167" s="23" t="s">
         <v>34</v>
@@ -8099,19 +8106,15 @@
     </row>
     <row r="168" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B168" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C168" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="D168" s="23" t="s">
-        <v>373</v>
-      </c>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
       <c r="E168" s="23" t="s">
-        <v>371</v>
+        <v>43</v>
       </c>
       <c r="F168" s="23" t="s">
         <v>34</v>
@@ -8125,15 +8128,19 @@
     </row>
     <row r="169" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="27" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B169" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C169" s="23"/>
-      <c r="D169" s="23"/>
+      <c r="C169" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>373</v>
+      </c>
       <c r="E169" s="23" t="s">
-        <v>43</v>
+        <v>371</v>
       </c>
       <c r="F169" s="23" t="s">
         <v>34</v>
@@ -8147,7 +8154,7 @@
     </row>
     <row r="170" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B170" s="23" t="s">
         <v>44</v>
@@ -8169,17 +8176,15 @@
     </row>
     <row r="171" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B171" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C171" s="23" t="s">
-        <v>378</v>
-      </c>
+      <c r="C171" s="23"/>
       <c r="D171" s="23"/>
       <c r="E171" s="23" t="s">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="F171" s="23" t="s">
         <v>34</v>
@@ -8193,15 +8198,17 @@
     </row>
     <row r="172" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="27" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B172" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C172" s="23"/>
+      <c r="C172" s="23" t="s">
+        <v>378</v>
+      </c>
       <c r="D172" s="23"/>
       <c r="E172" s="23" t="s">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="F172" s="23" t="s">
         <v>34</v>
@@ -8215,17 +8222,15 @@
     </row>
     <row r="173" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B173" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C173" s="23" t="s">
-        <v>382</v>
-      </c>
+      <c r="C173" s="23"/>
       <c r="D173" s="23"/>
       <c r="E173" s="23" t="s">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="F173" s="23" t="s">
         <v>34</v>
@@ -8239,15 +8244,17 @@
     </row>
     <row r="174" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="27" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B174" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C174" s="23"/>
+      <c r="C174" s="23" t="s">
+        <v>382</v>
+      </c>
       <c r="D174" s="23"/>
       <c r="E174" s="23" t="s">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="F174" s="23" t="s">
         <v>34</v>
@@ -8261,17 +8268,15 @@
     </row>
     <row r="175" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B175" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C175" s="23" t="s">
-        <v>386</v>
-      </c>
+      <c r="C175" s="23"/>
       <c r="D175" s="23"/>
       <c r="E175" s="23" t="s">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="F175" s="23" t="s">
         <v>34</v>
@@ -8285,15 +8290,17 @@
     </row>
     <row r="176" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="27" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B176" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C176" s="23"/>
+      <c r="C176" s="23" t="s">
+        <v>386</v>
+      </c>
       <c r="D176" s="23"/>
       <c r="E176" s="23" t="s">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="F176" s="23" t="s">
         <v>34</v>
@@ -8307,17 +8314,15 @@
     </row>
     <row r="177" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B177" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C177" s="23" t="s">
-        <v>390</v>
-      </c>
+      <c r="C177" s="23"/>
       <c r="D177" s="23"/>
       <c r="E177" s="23" t="s">
-        <v>389</v>
+        <v>43</v>
       </c>
       <c r="F177" s="23" t="s">
         <v>34</v>
@@ -8331,15 +8336,17 @@
     </row>
     <row r="178" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="27" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B178" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C178" s="23"/>
+      <c r="C178" s="23" t="s">
+        <v>390</v>
+      </c>
       <c r="D178" s="23"/>
       <c r="E178" s="23" t="s">
-        <v>43</v>
+        <v>389</v>
       </c>
       <c r="F178" s="23" t="s">
         <v>34</v>
@@ -8353,17 +8360,15 @@
     </row>
     <row r="179" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B179" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C179" s="23" t="s">
-        <v>394</v>
-      </c>
+      <c r="C179" s="23"/>
       <c r="D179" s="23"/>
       <c r="E179" s="23" t="s">
-        <v>393</v>
+        <v>43</v>
       </c>
       <c r="F179" s="23" t="s">
         <v>34</v>
@@ -8377,15 +8382,17 @@
     </row>
     <row r="180" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B180" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C180" s="23"/>
+      <c r="C180" s="23" t="s">
+        <v>394</v>
+      </c>
       <c r="D180" s="23"/>
       <c r="E180" s="23" t="s">
-        <v>43</v>
+        <v>393</v>
       </c>
       <c r="F180" s="23" t="s">
         <v>34</v>
@@ -8399,7 +8406,7 @@
     </row>
     <row r="181" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B181" s="23" t="s">
         <v>44</v>
@@ -8421,17 +8428,15 @@
     </row>
     <row r="182" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B182" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C182" s="23" t="s">
-        <v>399</v>
-      </c>
+      <c r="C182" s="23"/>
       <c r="D182" s="23"/>
       <c r="E182" s="23" t="s">
-        <v>398</v>
+        <v>43</v>
       </c>
       <c r="F182" s="23" t="s">
         <v>34</v>
@@ -8445,15 +8450,17 @@
     </row>
     <row r="183" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="27" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B183" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C183" s="23"/>
+      <c r="C183" s="23" t="s">
+        <v>399</v>
+      </c>
       <c r="D183" s="23"/>
       <c r="E183" s="23" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="F183" s="23" t="s">
         <v>34</v>
@@ -8467,7 +8474,7 @@
     </row>
     <row r="184" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B184" s="23" t="s">
         <v>44</v>
@@ -8489,7 +8496,7 @@
     </row>
     <row r="185" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B185" s="23" t="s">
         <v>44</v>
@@ -8511,7 +8518,7 @@
     </row>
     <row r="186" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B186" s="23" t="s">
         <v>44</v>
@@ -8533,7 +8540,7 @@
     </row>
     <row r="187" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B187" s="23" t="s">
         <v>44</v>
@@ -8555,7 +8562,7 @@
     </row>
     <row r="188" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B188" s="23" t="s">
         <v>44</v>
@@ -8577,7 +8584,7 @@
     </row>
     <row r="189" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B189" s="23" t="s">
         <v>44</v>
@@ -8599,7 +8606,7 @@
     </row>
     <row r="190" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B190" s="23" t="s">
         <v>44</v>
@@ -8621,7 +8628,7 @@
     </row>
     <row r="191" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B191" s="23" t="s">
         <v>44</v>
@@ -8643,7 +8650,7 @@
     </row>
     <row r="192" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B192" s="23" t="s">
         <v>44</v>
@@ -8665,7 +8672,7 @@
     </row>
     <row r="193" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B193" s="23" t="s">
         <v>44</v>
@@ -8687,7 +8694,7 @@
     </row>
     <row r="194" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B194" s="23" t="s">
         <v>44</v>
@@ -8709,7 +8716,7 @@
     </row>
     <row r="195" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B195" s="23" t="s">
         <v>44</v>
@@ -8731,7 +8738,7 @@
     </row>
     <row r="196" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B196" s="23" t="s">
         <v>44</v>
@@ -8753,7 +8760,7 @@
     </row>
     <row r="197" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B197" s="23" t="s">
         <v>44</v>
@@ -8775,7 +8782,7 @@
     </row>
     <row r="198" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B198" s="23" t="s">
         <v>44</v>
@@ -8797,7 +8804,7 @@
     </row>
     <row r="199" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B199" s="23" t="s">
         <v>44</v>
@@ -8819,7 +8826,7 @@
     </row>
     <row r="200" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B200" s="23" t="s">
         <v>44</v>
@@ -8841,7 +8848,7 @@
     </row>
     <row r="201" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B201" s="23" t="s">
         <v>44</v>
@@ -8863,7 +8870,7 @@
     </row>
     <row r="202" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B202" s="23" t="s">
         <v>44</v>
@@ -8885,7 +8892,7 @@
     </row>
     <row r="203" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B203" s="23" t="s">
         <v>44</v>
@@ -8907,7 +8914,7 @@
     </row>
     <row r="204" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B204" s="23" t="s">
         <v>44</v>
@@ -8929,7 +8936,7 @@
     </row>
     <row r="205" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B205" s="23" t="s">
         <v>44</v>
@@ -8951,7 +8958,7 @@
     </row>
     <row r="206" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B206" s="23" t="s">
         <v>44</v>
@@ -8973,7 +8980,7 @@
     </row>
     <row r="207" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B207" s="23" t="s">
         <v>44</v>
@@ -8995,7 +9002,7 @@
     </row>
     <row r="208" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B208" s="23" t="s">
         <v>44</v>
@@ -9017,7 +9024,7 @@
     </row>
     <row r="209" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B209" s="23" t="s">
         <v>44</v>
@@ -9039,7 +9046,7 @@
     </row>
     <row r="210" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B210" s="23" t="s">
         <v>44</v>
@@ -9061,7 +9068,7 @@
     </row>
     <row r="211" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B211" s="23" t="s">
         <v>44</v>
@@ -9083,7 +9090,7 @@
     </row>
     <row r="212" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B212" s="23" t="s">
         <v>44</v>
@@ -9105,7 +9112,7 @@
     </row>
     <row r="213" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B213" s="23" t="s">
         <v>44</v>
@@ -9127,7 +9134,7 @@
     </row>
     <row r="214" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B214" s="23" t="s">
         <v>44</v>
@@ -9149,7 +9156,7 @@
     </row>
     <row r="215" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B215" s="23" t="s">
         <v>44</v>
@@ -9171,7 +9178,7 @@
     </row>
     <row r="216" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B216" s="23" t="s">
         <v>44</v>
@@ -9193,7 +9200,7 @@
     </row>
     <row r="217" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B217" s="23" t="s">
         <v>44</v>
@@ -9215,7 +9222,7 @@
     </row>
     <row r="218" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B218" s="23" t="s">
         <v>44</v>
@@ -9237,7 +9244,7 @@
     </row>
     <row r="219" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B219" s="23" t="s">
         <v>44</v>
@@ -9259,7 +9266,7 @@
     </row>
     <row r="220" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B220" s="23" t="s">
         <v>44</v>
@@ -9281,7 +9288,7 @@
     </row>
     <row r="221" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B221" s="23" t="s">
         <v>44</v>
@@ -9303,7 +9310,7 @@
     </row>
     <row r="222" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B222" s="23" t="s">
         <v>44</v>
@@ -9325,7 +9332,7 @@
     </row>
     <row r="223" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B223" s="23" t="s">
         <v>44</v>
@@ -9347,7 +9354,7 @@
     </row>
     <row r="224" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B224" s="23" t="s">
         <v>44</v>
@@ -9369,7 +9376,7 @@
     </row>
     <row r="225" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B225" s="23" t="s">
         <v>44</v>
@@ -9391,7 +9398,7 @@
     </row>
     <row r="226" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B226" s="23" t="s">
         <v>44</v>
@@ -9413,7 +9420,7 @@
     </row>
     <row r="227" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B227" s="23" t="s">
         <v>44</v>
@@ -9435,7 +9442,7 @@
     </row>
     <row r="228" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B228" s="23" t="s">
         <v>44</v>
@@ -9457,7 +9464,7 @@
     </row>
     <row r="229" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B229" s="23" t="s">
         <v>44</v>
@@ -9479,7 +9486,7 @@
     </row>
     <row r="230" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B230" s="23" t="s">
         <v>44</v>
@@ -9501,7 +9508,7 @@
     </row>
     <row r="231" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B231" s="23" t="s">
         <v>44</v>
@@ -9523,7 +9530,7 @@
     </row>
     <row r="232" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B232" s="23" t="s">
         <v>44</v>
@@ -9545,7 +9552,7 @@
     </row>
     <row r="233" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B233" s="23" t="s">
         <v>44</v>
@@ -9567,7 +9574,7 @@
     </row>
     <row r="234" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B234" s="23" t="s">
         <v>44</v>
@@ -9589,7 +9596,7 @@
     </row>
     <row r="235" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B235" s="23" t="s">
         <v>44</v>
@@ -9611,7 +9618,7 @@
     </row>
     <row r="236" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B236" s="23" t="s">
         <v>44</v>
@@ -9633,7 +9640,7 @@
     </row>
     <row r="237" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B237" s="23" t="s">
         <v>44</v>
@@ -9655,7 +9662,7 @@
     </row>
     <row r="238" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B238" s="23" t="s">
         <v>44</v>
@@ -9677,7 +9684,7 @@
     </row>
     <row r="239" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B239" s="23" t="s">
         <v>44</v>
@@ -9699,7 +9706,7 @@
     </row>
     <row r="240" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B240" s="23" t="s">
         <v>44</v>
@@ -9721,7 +9728,7 @@
     </row>
     <row r="241" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B241" s="23" t="s">
         <v>44</v>
@@ -9743,7 +9750,7 @@
     </row>
     <row r="242" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B242" s="23" t="s">
         <v>44</v>
@@ -9765,7 +9772,7 @@
     </row>
     <row r="243" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B243" s="23" t="s">
         <v>44</v>
@@ -9787,7 +9794,7 @@
     </row>
     <row r="244" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B244" s="23" t="s">
         <v>44</v>
@@ -9809,7 +9816,7 @@
     </row>
     <row r="245" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B245" s="23" t="s">
         <v>44</v>
@@ -9831,7 +9838,7 @@
     </row>
     <row r="246" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B246" s="23" t="s">
         <v>44</v>
@@ -9853,7 +9860,7 @@
     </row>
     <row r="247" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B247" s="23" t="s">
         <v>44</v>
@@ -9875,7 +9882,7 @@
     </row>
     <row r="248" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B248" s="23" t="s">
         <v>44</v>
@@ -9897,7 +9904,7 @@
     </row>
     <row r="249" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B249" s="23" t="s">
         <v>44</v>
@@ -9919,7 +9926,7 @@
     </row>
     <row r="250" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B250" s="23" t="s">
         <v>44</v>
@@ -9941,7 +9948,7 @@
     </row>
     <row r="251" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B251" s="23" t="s">
         <v>44</v>
@@ -9963,7 +9970,7 @@
     </row>
     <row r="252" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B252" s="23" t="s">
         <v>44</v>
@@ -9985,7 +9992,7 @@
     </row>
     <row r="253" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B253" s="23" t="s">
         <v>44</v>
@@ -10007,7 +10014,7 @@
     </row>
     <row r="254" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B254" s="23" t="s">
         <v>44</v>
@@ -10029,7 +10036,7 @@
     </row>
     <row r="255" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B255" s="23" t="s">
         <v>44</v>
@@ -10051,7 +10058,7 @@
     </row>
     <row r="256" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B256" s="23" t="s">
         <v>44</v>
@@ -10073,7 +10080,7 @@
     </row>
     <row r="257" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B257" s="23" t="s">
         <v>44</v>
@@ -10095,7 +10102,7 @@
     </row>
     <row r="258" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B258" s="23" t="s">
         <v>44</v>
@@ -10117,7 +10124,7 @@
     </row>
     <row r="259" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B259" s="23" t="s">
         <v>44</v>
@@ -10139,7 +10146,7 @@
     </row>
     <row r="260" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B260" s="23" t="s">
         <v>44</v>
@@ -10161,7 +10168,7 @@
     </row>
     <row r="261" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B261" s="23" t="s">
         <v>44</v>
@@ -10183,7 +10190,7 @@
     </row>
     <row r="262" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B262" s="23" t="s">
         <v>44</v>
@@ -10205,7 +10212,7 @@
     </row>
     <row r="263" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B263" s="23" t="s">
         <v>44</v>
@@ -10227,7 +10234,7 @@
     </row>
     <row r="264" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B264" s="23" t="s">
         <v>44</v>
@@ -10249,7 +10256,7 @@
     </row>
     <row r="265" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B265" s="23" t="s">
         <v>44</v>
@@ -10271,7 +10278,7 @@
     </row>
     <row r="266" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B266" s="23" t="s">
         <v>44</v>
@@ -10293,7 +10300,7 @@
     </row>
     <row r="267" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B267" s="23" t="s">
         <v>44</v>
@@ -10315,7 +10322,7 @@
     </row>
     <row r="268" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B268" s="23" t="s">
         <v>44</v>
@@ -10337,7 +10344,7 @@
     </row>
     <row r="269" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B269" s="23" t="s">
         <v>44</v>
@@ -10359,7 +10366,7 @@
     </row>
     <row r="270" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B270" s="23" t="s">
         <v>44</v>
@@ -10381,7 +10388,7 @@
     </row>
     <row r="271" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B271" s="23" t="s">
         <v>44</v>
@@ -10403,7 +10410,7 @@
     </row>
     <row r="272" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B272" s="23" t="s">
         <v>44</v>
@@ -10425,7 +10432,7 @@
     </row>
     <row r="273" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B273" s="23" t="s">
         <v>44</v>
@@ -10447,7 +10454,7 @@
     </row>
     <row r="274" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B274" s="23" t="s">
         <v>44</v>
@@ -10469,7 +10476,7 @@
     </row>
     <row r="275" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B275" s="23" t="s">
         <v>44</v>
@@ -10491,7 +10498,7 @@
     </row>
     <row r="276" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B276" s="23" t="s">
         <v>44</v>
@@ -10513,7 +10520,7 @@
     </row>
     <row r="277" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B277" s="23" t="s">
         <v>44</v>
@@ -10535,7 +10542,7 @@
     </row>
     <row r="278" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B278" s="23" t="s">
         <v>44</v>
@@ -10557,7 +10564,7 @@
     </row>
     <row r="279" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B279" s="23" t="s">
         <v>44</v>
@@ -10579,7 +10586,7 @@
     </row>
     <row r="280" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B280" s="23" t="s">
         <v>44</v>
@@ -10601,7 +10608,7 @@
     </row>
     <row r="281" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B281" s="23" t="s">
         <v>44</v>
@@ -10623,7 +10630,7 @@
     </row>
     <row r="282" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B282" s="23" t="s">
         <v>44</v>
@@ -10645,7 +10652,7 @@
     </row>
     <row r="283" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B283" s="23" t="s">
         <v>44</v>
@@ -10667,7 +10674,7 @@
     </row>
     <row r="284" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B284" s="23" t="s">
         <v>44</v>
@@ -10689,7 +10696,7 @@
     </row>
     <row r="285" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B285" s="23" t="s">
         <v>44</v>
@@ -10711,7 +10718,7 @@
     </row>
     <row r="286" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B286" s="23" t="s">
         <v>44</v>
@@ -10733,7 +10740,7 @@
     </row>
     <row r="287" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B287" s="23" t="s">
         <v>44</v>
@@ -10755,7 +10762,7 @@
     </row>
     <row r="288" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B288" s="23" t="s">
         <v>44</v>
@@ -10777,7 +10784,7 @@
     </row>
     <row r="289" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B289" s="23" t="s">
         <v>44</v>
@@ -10799,7 +10806,7 @@
     </row>
     <row r="290" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B290" s="23" t="s">
         <v>44</v>
@@ -10821,7 +10828,7 @@
     </row>
     <row r="291" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B291" s="23" t="s">
         <v>44</v>
@@ -10843,7 +10850,7 @@
     </row>
     <row r="292" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B292" s="23" t="s">
         <v>44</v>
@@ -10865,7 +10872,7 @@
     </row>
     <row r="293" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B293" s="23" t="s">
         <v>44</v>
@@ -10887,7 +10894,7 @@
     </row>
     <row r="294" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B294" s="23" t="s">
         <v>44</v>
@@ -10909,7 +10916,7 @@
     </row>
     <row r="295" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B295" s="23" t="s">
         <v>44</v>
@@ -10931,7 +10938,7 @@
     </row>
     <row r="296" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B296" s="23" t="s">
         <v>44</v>
@@ -10953,7 +10960,7 @@
     </row>
     <row r="297" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B297" s="23" t="s">
         <v>44</v>
@@ -10975,7 +10982,7 @@
     </row>
     <row r="298" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B298" s="23" t="s">
         <v>44</v>
@@ -10997,7 +11004,7 @@
     </row>
     <row r="299" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B299" s="23" t="s">
         <v>44</v>
@@ -11019,7 +11026,7 @@
     </row>
     <row r="300" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B300" s="23" t="s">
         <v>44</v>
@@ -11041,7 +11048,7 @@
     </row>
     <row r="301" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B301" s="23" t="s">
         <v>44</v>
@@ -11063,7 +11070,7 @@
     </row>
     <row r="302" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B302" s="23" t="s">
         <v>44</v>
@@ -11085,7 +11092,7 @@
     </row>
     <row r="303" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B303" s="23" t="s">
         <v>44</v>
@@ -11107,7 +11114,7 @@
     </row>
     <row r="304" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B304" s="23" t="s">
         <v>44</v>
@@ -11129,7 +11136,7 @@
     </row>
     <row r="305" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B305" s="23" t="s">
         <v>44</v>
@@ -11151,7 +11158,7 @@
     </row>
     <row r="306" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B306" s="23" t="s">
         <v>44</v>
@@ -11173,7 +11180,7 @@
     </row>
     <row r="307" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B307" s="23" t="s">
         <v>44</v>
@@ -11195,7 +11202,7 @@
     </row>
     <row r="308" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B308" s="23" t="s">
         <v>44</v>
@@ -11217,7 +11224,7 @@
     </row>
     <row r="309" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B309" s="23" t="s">
         <v>44</v>
@@ -11239,7 +11246,7 @@
     </row>
     <row r="310" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B310" s="23" t="s">
         <v>44</v>
@@ -11261,7 +11268,7 @@
     </row>
     <row r="311" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B311" s="23" t="s">
         <v>44</v>
@@ -11283,7 +11290,7 @@
     </row>
     <row r="312" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B312" s="23" t="s">
         <v>44</v>
@@ -11305,7 +11312,7 @@
     </row>
     <row r="313" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B313" s="23" t="s">
         <v>44</v>
@@ -11327,7 +11334,7 @@
     </row>
     <row r="314" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B314" s="23" t="s">
         <v>44</v>
@@ -11349,7 +11356,7 @@
     </row>
     <row r="315" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B315" s="23" t="s">
         <v>44</v>
@@ -11371,7 +11378,7 @@
     </row>
     <row r="316" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B316" s="23" t="s">
         <v>44</v>
@@ -11393,7 +11400,7 @@
     </row>
     <row r="317" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B317" s="23" t="s">
         <v>44</v>
@@ -11415,7 +11422,7 @@
     </row>
     <row r="318" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B318" s="23" t="s">
         <v>44</v>
@@ -11437,7 +11444,7 @@
     </row>
     <row r="319" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B319" s="23" t="s">
         <v>44</v>
@@ -11459,7 +11466,7 @@
     </row>
     <row r="320" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B320" s="23" t="s">
         <v>44</v>
@@ -11481,7 +11488,7 @@
     </row>
     <row r="321" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B321" s="23" t="s">
         <v>44</v>
@@ -11503,7 +11510,7 @@
     </row>
     <row r="322" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B322" s="23" t="s">
         <v>44</v>
@@ -11525,7 +11532,7 @@
     </row>
     <row r="323" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B323" s="23" t="s">
         <v>44</v>
@@ -11547,7 +11554,7 @@
     </row>
     <row r="324" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B324" s="23" t="s">
         <v>44</v>
@@ -11569,7 +11576,7 @@
     </row>
     <row r="325" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B325" s="23" t="s">
         <v>44</v>
@@ -11591,7 +11598,7 @@
     </row>
     <row r="326" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B326" s="23" t="s">
         <v>44</v>
@@ -11613,7 +11620,7 @@
     </row>
     <row r="327" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B327" s="23" t="s">
         <v>44</v>
@@ -11635,7 +11642,7 @@
     </row>
     <row r="328" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B328" s="23" t="s">
         <v>44</v>
@@ -11657,7 +11664,7 @@
     </row>
     <row r="329" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B329" s="23" t="s">
         <v>44</v>
@@ -11679,7 +11686,7 @@
     </row>
     <row r="330" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B330" s="23" t="s">
         <v>44</v>
@@ -11701,7 +11708,7 @@
     </row>
     <row r="331" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B331" s="23" t="s">
         <v>44</v>
@@ -11723,7 +11730,7 @@
     </row>
     <row r="332" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B332" s="23" t="s">
         <v>44</v>
@@ -11745,7 +11752,7 @@
     </row>
     <row r="333" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B333" s="23" t="s">
         <v>44</v>
@@ -11767,7 +11774,7 @@
     </row>
     <row r="334" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B334" s="23" t="s">
         <v>44</v>
@@ -11789,7 +11796,7 @@
     </row>
     <row r="335" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A335" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B335" s="23" t="s">
         <v>44</v>
@@ -11811,7 +11818,7 @@
     </row>
     <row r="336" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B336" s="23" t="s">
         <v>44</v>
@@ -11833,7 +11840,7 @@
     </row>
     <row r="337" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B337" s="23" t="s">
         <v>44</v>
@@ -11855,7 +11862,7 @@
     </row>
     <row r="338" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B338" s="23" t="s">
         <v>44</v>
@@ -11877,7 +11884,7 @@
     </row>
     <row r="339" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A339" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B339" s="23" t="s">
         <v>44</v>
@@ -11899,7 +11906,7 @@
     </row>
     <row r="340" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A340" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B340" s="23" t="s">
         <v>44</v>
@@ -11921,7 +11928,7 @@
     </row>
     <row r="341" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B341" s="23" t="s">
         <v>44</v>
@@ -11943,7 +11950,7 @@
     </row>
     <row r="342" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B342" s="23" t="s">
         <v>44</v>
@@ -11965,7 +11972,7 @@
     </row>
     <row r="343" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B343" s="23" t="s">
         <v>44</v>
@@ -11987,7 +11994,7 @@
     </row>
     <row r="344" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B344" s="23" t="s">
         <v>44</v>
@@ -12009,7 +12016,7 @@
     </row>
     <row r="345" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A345" s="27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B345" s="23" t="s">
         <v>44</v>
@@ -12031,7 +12038,7 @@
     </row>
     <row r="346" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A346" s="27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B346" s="23" t="s">
         <v>44</v>
@@ -12053,7 +12060,7 @@
     </row>
     <row r="347" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A347" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B347" s="23" t="s">
         <v>44</v>
@@ -12075,7 +12082,7 @@
     </row>
     <row r="348" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A348" s="27" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B348" s="23" t="s">
         <v>44</v>
@@ -12097,7 +12104,7 @@
     </row>
     <row r="349" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A349" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B349" s="23" t="s">
         <v>44</v>
@@ -12119,7 +12126,7 @@
     </row>
     <row r="350" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A350" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B350" s="23" t="s">
         <v>44</v>
@@ -12141,7 +12148,7 @@
     </row>
     <row r="351" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A351" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B351" s="23" t="s">
         <v>44</v>
@@ -12163,7 +12170,7 @@
     </row>
     <row r="352" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A352" s="27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B352" s="23" t="s">
         <v>44</v>
@@ -12185,7 +12192,7 @@
     </row>
     <row r="353" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A353" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B353" s="23" t="s">
         <v>44</v>
@@ -12207,7 +12214,7 @@
     </row>
     <row r="354" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A354" s="27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B354" s="23" t="s">
         <v>44</v>
@@ -12229,7 +12236,7 @@
     </row>
     <row r="355" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A355" s="27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B355" s="23" t="s">
         <v>44</v>
@@ -12251,7 +12258,7 @@
     </row>
     <row r="356" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A356" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B356" s="23" t="s">
         <v>44</v>
@@ -12273,7 +12280,7 @@
     </row>
     <row r="357" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A357" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B357" s="23" t="s">
         <v>44</v>
@@ -12295,7 +12302,7 @@
     </row>
     <row r="358" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A358" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B358" s="23" t="s">
         <v>44</v>
@@ -12317,7 +12324,7 @@
     </row>
     <row r="359" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A359" s="27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B359" s="23" t="s">
         <v>44</v>
@@ -12339,7 +12346,7 @@
     </row>
     <row r="360" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A360" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B360" s="23" t="s">
         <v>44</v>
@@ -12361,7 +12368,7 @@
     </row>
     <row r="361" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A361" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B361" s="23" t="s">
         <v>44</v>
@@ -12383,7 +12390,7 @@
     </row>
     <row r="362" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A362" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B362" s="23" t="s">
         <v>44</v>
@@ -12405,7 +12412,7 @@
     </row>
     <row r="363" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A363" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B363" s="23" t="s">
         <v>44</v>
@@ -12427,7 +12434,7 @@
     </row>
     <row r="364" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B364" s="23" t="s">
         <v>44</v>
@@ -12449,7 +12456,7 @@
     </row>
     <row r="365" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B365" s="23" t="s">
         <v>44</v>
@@ -12471,7 +12478,7 @@
     </row>
     <row r="366" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A366" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B366" s="23" t="s">
         <v>44</v>
@@ -12493,7 +12500,7 @@
     </row>
     <row r="367" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A367" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B367" s="23" t="s">
         <v>44</v>
@@ -12515,7 +12522,7 @@
     </row>
     <row r="368" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A368" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B368" s="23" t="s">
         <v>44</v>
@@ -12537,7 +12544,7 @@
     </row>
     <row r="369" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A369" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B369" s="23" t="s">
         <v>44</v>
@@ -12559,7 +12566,7 @@
     </row>
     <row r="370" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A370" s="27" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B370" s="23" t="s">
         <v>44</v>
@@ -12581,7 +12588,7 @@
     </row>
     <row r="371" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A371" s="27" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B371" s="23" t="s">
         <v>44</v>
@@ -12603,7 +12610,7 @@
     </row>
     <row r="372" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A372" s="27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B372" s="23" t="s">
         <v>44</v>
@@ -12625,7 +12632,7 @@
     </row>
     <row r="373" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A373" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B373" s="23" t="s">
         <v>44</v>
@@ -12647,7 +12654,7 @@
     </row>
     <row r="374" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A374" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B374" s="23" t="s">
         <v>44</v>
@@ -12669,7 +12676,7 @@
     </row>
     <row r="375" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B375" s="23" t="s">
         <v>44</v>
@@ -12691,7 +12698,7 @@
     </row>
     <row r="376" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A376" s="27" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B376" s="23" t="s">
         <v>44</v>
@@ -12713,7 +12720,7 @@
     </row>
     <row r="377" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A377" s="27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B377" s="23" t="s">
         <v>44</v>
@@ -12735,7 +12742,7 @@
     </row>
     <row r="378" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A378" s="27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B378" s="23" t="s">
         <v>44</v>
@@ -12757,7 +12764,7 @@
     </row>
     <row r="379" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A379" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B379" s="23" t="s">
         <v>44</v>
@@ -12779,7 +12786,7 @@
     </row>
     <row r="380" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A380" s="27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B380" s="23" t="s">
         <v>44</v>
@@ -12801,7 +12808,7 @@
     </row>
     <row r="381" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A381" s="27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B381" s="23" t="s">
         <v>44</v>
@@ -12823,7 +12830,7 @@
     </row>
     <row r="382" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A382" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B382" s="23" t="s">
         <v>44</v>
@@ -12845,7 +12852,7 @@
     </row>
     <row r="383" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B383" s="23" t="s">
         <v>44</v>
@@ -12867,7 +12874,7 @@
     </row>
     <row r="384" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A384" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B384" s="23" t="s">
         <v>44</v>
@@ -12889,7 +12896,7 @@
     </row>
     <row r="385" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A385" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B385" s="23" t="s">
         <v>44</v>
@@ -12911,7 +12918,7 @@
     </row>
     <row r="386" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A386" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B386" s="23" t="s">
         <v>44</v>
@@ -12933,7 +12940,7 @@
     </row>
     <row r="387" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="27" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B387" s="23" t="s">
         <v>44</v>
@@ -12955,7 +12962,7 @@
     </row>
     <row r="388" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B388" s="23" t="s">
         <v>44</v>
@@ -12977,7 +12984,7 @@
     </row>
     <row r="389" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B389" s="23" t="s">
         <v>44</v>
@@ -12999,7 +13006,7 @@
     </row>
     <row r="390" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B390" s="23" t="s">
         <v>44</v>
@@ -13021,7 +13028,7 @@
     </row>
     <row r="391" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B391" s="23" t="s">
         <v>44</v>
@@ -13043,7 +13050,7 @@
     </row>
     <row r="392" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B392" s="23" t="s">
         <v>44</v>
@@ -13065,7 +13072,7 @@
     </row>
     <row r="393" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B393" s="23" t="s">
         <v>44</v>
@@ -13087,7 +13094,7 @@
     </row>
     <row r="394" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B394" s="23" t="s">
         <v>44</v>
@@ -13109,7 +13116,7 @@
     </row>
     <row r="395" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B395" s="23" t="s">
         <v>44</v>
@@ -13131,7 +13138,7 @@
     </row>
     <row r="396" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B396" s="23" t="s">
         <v>44</v>
@@ -13153,7 +13160,7 @@
     </row>
     <row r="397" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B397" s="23" t="s">
         <v>44</v>
@@ -13175,7 +13182,7 @@
     </row>
     <row r="398" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B398" s="23" t="s">
         <v>44</v>
@@ -13197,7 +13204,7 @@
     </row>
     <row r="399" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A399" s="27" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B399" s="23" t="s">
         <v>44</v>
@@ -13219,7 +13226,7 @@
     </row>
     <row r="400" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A400" s="27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B400" s="23" t="s">
         <v>44</v>
@@ -13241,7 +13248,7 @@
     </row>
     <row r="401" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A401" s="27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B401" s="23" t="s">
         <v>44</v>
@@ -13263,7 +13270,7 @@
     </row>
     <row r="402" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A402" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B402" s="23" t="s">
         <v>44</v>
@@ -13285,7 +13292,7 @@
     </row>
     <row r="403" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B403" s="23" t="s">
         <v>44</v>
@@ -13307,7 +13314,7 @@
     </row>
     <row r="404" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B404" s="23" t="s">
         <v>44</v>
@@ -13329,7 +13336,7 @@
     </row>
     <row r="405" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="27" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B405" s="23" t="s">
         <v>44</v>
@@ -13351,7 +13358,7 @@
     </row>
     <row r="406" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B406" s="23" t="s">
         <v>44</v>
@@ -13373,7 +13380,7 @@
     </row>
     <row r="407" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A407" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B407" s="23" t="s">
         <v>44</v>
@@ -13395,7 +13402,7 @@
     </row>
     <row r="408" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B408" s="23" t="s">
         <v>44</v>
@@ -13417,7 +13424,7 @@
     </row>
     <row r="409" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B409" s="23" t="s">
         <v>44</v>
@@ -13439,7 +13446,7 @@
     </row>
     <row r="410" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A410" s="27" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B410" s="23" t="s">
         <v>44</v>
@@ -13461,7 +13468,7 @@
     </row>
     <row r="411" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A411" s="27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B411" s="23" t="s">
         <v>44</v>
@@ -13483,7 +13490,7 @@
     </row>
     <row r="412" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A412" s="27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B412" s="23" t="s">
         <v>44</v>
@@ -13505,7 +13512,7 @@
     </row>
     <row r="413" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A413" s="27" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B413" s="23" t="s">
         <v>44</v>
@@ -13527,7 +13534,7 @@
     </row>
     <row r="414" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A414" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B414" s="23" t="s">
         <v>44</v>
@@ -13549,7 +13556,7 @@
     </row>
     <row r="415" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A415" s="27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B415" s="23" t="s">
         <v>44</v>
@@ -13571,7 +13578,7 @@
     </row>
     <row r="416" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B416" s="23" t="s">
         <v>44</v>
@@ -13593,7 +13600,7 @@
     </row>
     <row r="417" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B417" s="23" t="s">
         <v>44</v>
@@ -13615,7 +13622,7 @@
     </row>
     <row r="418" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A418" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B418" s="23" t="s">
         <v>44</v>
@@ -13637,7 +13644,7 @@
     </row>
     <row r="419" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A419" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B419" s="23" t="s">
         <v>44</v>
@@ -13659,7 +13666,7 @@
     </row>
     <row r="420" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B420" s="23" t="s">
         <v>44</v>
@@ -13681,7 +13688,7 @@
     </row>
     <row r="421" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A421" s="27" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B421" s="23" t="s">
         <v>44</v>
@@ -13703,7 +13710,7 @@
     </row>
     <row r="422" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A422" s="27" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B422" s="23" t="s">
         <v>44</v>
@@ -13725,7 +13732,7 @@
     </row>
     <row r="423" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A423" s="27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B423" s="23" t="s">
         <v>44</v>
@@ -13747,7 +13754,7 @@
     </row>
     <row r="424" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A424" s="27" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B424" s="23" t="s">
         <v>44</v>
@@ -13769,7 +13776,7 @@
     </row>
     <row r="425" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A425" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B425" s="23" t="s">
         <v>44</v>
@@ -13791,7 +13798,7 @@
     </row>
     <row r="426" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A426" s="27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B426" s="23" t="s">
         <v>44</v>
@@ -13813,7 +13820,7 @@
     </row>
     <row r="427" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A427" s="27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B427" s="23" t="s">
         <v>44</v>
@@ -13835,7 +13842,7 @@
     </row>
     <row r="428" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A428" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B428" s="23" t="s">
         <v>44</v>
@@ -13857,7 +13864,7 @@
     </row>
     <row r="429" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A429" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B429" s="23" t="s">
         <v>44</v>
@@ -13879,7 +13886,7 @@
     </row>
     <row r="430" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A430" s="27" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B430" s="23" t="s">
         <v>44</v>
@@ -13901,7 +13908,7 @@
     </row>
     <row r="431" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A431" s="27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B431" s="23" t="s">
         <v>44</v>
@@ -13923,7 +13930,7 @@
     </row>
     <row r="432" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A432" s="27" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B432" s="23" t="s">
         <v>44</v>
@@ -13945,7 +13952,7 @@
     </row>
     <row r="433" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A433" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B433" s="23" t="s">
         <v>44</v>
@@ -13967,7 +13974,7 @@
     </row>
     <row r="434" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A434" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B434" s="23" t="s">
         <v>44</v>
@@ -13989,7 +13996,7 @@
     </row>
     <row r="435" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A435" s="27" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B435" s="23" t="s">
         <v>44</v>
@@ -14011,7 +14018,7 @@
     </row>
     <row r="436" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A436" s="27" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B436" s="23" t="s">
         <v>44</v>
@@ -14033,7 +14040,7 @@
     </row>
     <row r="437" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A437" s="27" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B437" s="23" t="s">
         <v>44</v>
@@ -14055,7 +14062,7 @@
     </row>
     <row r="438" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A438" s="27" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B438" s="23" t="s">
         <v>44</v>
@@ -14077,7 +14084,7 @@
     </row>
     <row r="439" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A439" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B439" s="23" t="s">
         <v>44</v>
@@ -14099,7 +14106,7 @@
     </row>
     <row r="440" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A440" s="27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B440" s="23" t="s">
         <v>44</v>
@@ -14121,7 +14128,7 @@
     </row>
     <row r="441" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A441" s="27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B441" s="23" t="s">
         <v>44</v>
@@ -14143,7 +14150,7 @@
     </row>
     <row r="442" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A442" s="27" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B442" s="23" t="s">
         <v>44</v>
@@ -14165,7 +14172,7 @@
     </row>
     <row r="443" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A443" s="27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B443" s="23" t="s">
         <v>44</v>
@@ -14187,7 +14194,7 @@
     </row>
     <row r="444" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A444" s="27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B444" s="23" t="s">
         <v>44</v>
@@ -14209,7 +14216,7 @@
     </row>
     <row r="445" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A445" s="27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B445" s="23" t="s">
         <v>44</v>
@@ -14231,7 +14238,7 @@
     </row>
     <row r="446" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A446" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B446" s="23" t="s">
         <v>44</v>
@@ -14253,7 +14260,7 @@
     </row>
     <row r="447" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A447" s="27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B447" s="23" t="s">
         <v>44</v>
@@ -14275,7 +14282,7 @@
     </row>
     <row r="448" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A448" s="27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B448" s="23" t="s">
         <v>44</v>
@@ -14297,7 +14304,7 @@
     </row>
     <row r="449" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A449" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B449" s="23" t="s">
         <v>44</v>
@@ -14319,7 +14326,7 @@
     </row>
     <row r="450" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A450" s="27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B450" s="23" t="s">
         <v>44</v>
@@ -14341,7 +14348,7 @@
     </row>
     <row r="451" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A451" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B451" s="23" t="s">
         <v>44</v>
@@ -14363,7 +14370,7 @@
     </row>
     <row r="452" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A452" s="27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B452" s="23" t="s">
         <v>44</v>
@@ -14385,7 +14392,7 @@
     </row>
     <row r="453" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A453" s="27" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B453" s="23" t="s">
         <v>44</v>
@@ -14407,7 +14414,7 @@
     </row>
     <row r="454" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A454" s="27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B454" s="23" t="s">
         <v>44</v>
@@ -14429,7 +14436,7 @@
     </row>
     <row r="455" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A455" s="27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B455" s="23" t="s">
         <v>44</v>
@@ -14451,7 +14458,7 @@
     </row>
     <row r="456" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A456" s="27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B456" s="23" t="s">
         <v>44</v>
@@ -14473,7 +14480,7 @@
     </row>
     <row r="457" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A457" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B457" s="23" t="s">
         <v>44</v>
@@ -14495,7 +14502,7 @@
     </row>
     <row r="458" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A458" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B458" s="23" t="s">
         <v>44</v>
@@ -14517,7 +14524,7 @@
     </row>
     <row r="459" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A459" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B459" s="23" t="s">
         <v>44</v>
@@ -14539,7 +14546,7 @@
     </row>
     <row r="460" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A460" s="27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B460" s="23" t="s">
         <v>44</v>
@@ -14561,7 +14568,7 @@
     </row>
     <row r="461" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A461" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B461" s="23" t="s">
         <v>44</v>
@@ -14583,7 +14590,7 @@
     </row>
     <row r="462" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A462" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B462" s="23" t="s">
         <v>44</v>
@@ -14605,7 +14612,7 @@
     </row>
     <row r="463" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A463" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B463" s="23" t="s">
         <v>44</v>
@@ -14627,7 +14634,7 @@
     </row>
     <row r="464" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="27" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B464" s="23" t="s">
         <v>44</v>
@@ -14649,7 +14656,7 @@
     </row>
     <row r="465" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A465" s="27" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B465" s="23" t="s">
         <v>44</v>
@@ -14671,7 +14678,7 @@
     </row>
     <row r="466" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A466" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B466" s="23" t="s">
         <v>44</v>
@@ -14693,7 +14700,7 @@
     </row>
     <row r="467" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A467" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B467" s="23" t="s">
         <v>44</v>
@@ -14715,7 +14722,7 @@
     </row>
     <row r="468" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A468" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B468" s="23" t="s">
         <v>44</v>
@@ -14737,7 +14744,7 @@
     </row>
     <row r="469" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A469" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B469" s="23" t="s">
         <v>44</v>
@@ -14759,7 +14766,7 @@
     </row>
     <row r="470" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A470" s="27" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B470" s="23" t="s">
         <v>44</v>
@@ -14781,7 +14788,7 @@
     </row>
     <row r="471" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A471" s="27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B471" s="23" t="s">
         <v>44</v>
@@ -14803,7 +14810,7 @@
     </row>
     <row r="472" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A472" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B472" s="23" t="s">
         <v>44</v>
@@ -14825,7 +14832,7 @@
     </row>
     <row r="473" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A473" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B473" s="23" t="s">
         <v>44</v>
@@ -14847,7 +14854,7 @@
     </row>
     <row r="474" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A474" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B474" s="23" t="s">
         <v>44</v>
@@ -14869,7 +14876,7 @@
     </row>
     <row r="475" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A475" s="27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B475" s="23" t="s">
         <v>44</v>
@@ -14891,7 +14898,7 @@
     </row>
     <row r="476" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A476" s="27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B476" s="23" t="s">
         <v>44</v>
@@ -14913,7 +14920,7 @@
     </row>
     <row r="477" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A477" s="27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B477" s="23" t="s">
         <v>44</v>
@@ -14935,7 +14942,7 @@
     </row>
     <row r="478" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A478" s="27" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B478" s="23" t="s">
         <v>44</v>
@@ -14957,7 +14964,7 @@
     </row>
     <row r="479" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A479" s="27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B479" s="23" t="s">
         <v>44</v>
@@ -14979,7 +14986,7 @@
     </row>
     <row r="480" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A480" s="27" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B480" s="23" t="s">
         <v>44</v>
@@ -15001,7 +15008,7 @@
     </row>
     <row r="481" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A481" s="27" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B481" s="23" t="s">
         <v>44</v>
@@ -15023,7 +15030,7 @@
     </row>
     <row r="482" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A482" s="27" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B482" s="23" t="s">
         <v>44</v>
@@ -15045,7 +15052,7 @@
     </row>
     <row r="483" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A483" s="27" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B483" s="23" t="s">
         <v>44</v>
@@ -15067,7 +15074,7 @@
     </row>
     <row r="484" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A484" s="27" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B484" s="23" t="s">
         <v>44</v>
@@ -15089,7 +15096,7 @@
     </row>
     <row r="485" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A485" s="27" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B485" s="23" t="s">
         <v>44</v>
@@ -15111,7 +15118,7 @@
     </row>
     <row r="486" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A486" s="27" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B486" s="23" t="s">
         <v>44</v>
@@ -15133,7 +15140,7 @@
     </row>
     <row r="487" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A487" s="27" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B487" s="23" t="s">
         <v>44</v>
@@ -15155,7 +15162,7 @@
     </row>
     <row r="488" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A488" s="27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B488" s="23" t="s">
         <v>44</v>
@@ -15177,7 +15184,7 @@
     </row>
     <row r="489" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A489" s="27" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B489" s="23" t="s">
         <v>44</v>
@@ -15199,7 +15206,7 @@
     </row>
     <row r="490" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A490" s="27" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B490" s="23" t="s">
         <v>44</v>
@@ -15221,7 +15228,7 @@
     </row>
     <row r="491" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A491" s="27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B491" s="23" t="s">
         <v>44</v>
@@ -15243,7 +15250,7 @@
     </row>
     <row r="492" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A492" s="27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B492" s="23" t="s">
         <v>44</v>
@@ -15265,7 +15272,7 @@
     </row>
     <row r="493" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A493" s="27" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B493" s="23" t="s">
         <v>44</v>
@@ -15287,7 +15294,7 @@
     </row>
     <row r="494" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A494" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B494" s="23" t="s">
         <v>44</v>
@@ -15309,7 +15316,7 @@
     </row>
     <row r="495" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A495" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B495" s="23" t="s">
         <v>44</v>
@@ -15331,7 +15338,7 @@
     </row>
     <row r="496" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A496" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B496" s="23" t="s">
         <v>44</v>
@@ -15353,7 +15360,7 @@
     </row>
     <row r="497" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A497" s="27" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B497" s="23" t="s">
         <v>44</v>
@@ -15375,7 +15382,7 @@
     </row>
     <row r="498" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A498" s="27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B498" s="23" t="s">
         <v>44</v>
@@ -15397,7 +15404,7 @@
     </row>
     <row r="499" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A499" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B499" s="23" t="s">
         <v>44</v>
@@ -15419,7 +15426,7 @@
     </row>
     <row r="500" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A500" s="27" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B500" s="23" t="s">
         <v>44</v>
@@ -15441,7 +15448,7 @@
     </row>
     <row r="501" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A501" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B501" s="23" t="s">
         <v>44</v>
@@ -15463,7 +15470,7 @@
     </row>
     <row r="502" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A502" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B502" s="23" t="s">
         <v>44</v>
@@ -15485,7 +15492,7 @@
     </row>
     <row r="503" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A503" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B503" s="23" t="s">
         <v>44</v>
@@ -15507,7 +15514,7 @@
     </row>
     <row r="504" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A504" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B504" s="23" t="s">
         <v>44</v>
@@ -15529,7 +15536,7 @@
     </row>
     <row r="505" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A505" s="27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B505" s="23" t="s">
         <v>44</v>
@@ -15551,7 +15558,7 @@
     </row>
     <row r="506" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A506" s="27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B506" s="23" t="s">
         <v>44</v>
@@ -15573,7 +15580,7 @@
     </row>
     <row r="507" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A507" s="27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B507" s="23" t="s">
         <v>44</v>
@@ -15595,7 +15602,7 @@
     </row>
     <row r="508" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A508" s="27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B508" s="23" t="s">
         <v>44</v>
@@ -15617,7 +15624,7 @@
     </row>
     <row r="509" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A509" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B509" s="23" t="s">
         <v>44</v>
@@ -15639,7 +15646,7 @@
     </row>
     <row r="510" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A510" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B510" s="23" t="s">
         <v>44</v>
@@ -15661,7 +15668,7 @@
     </row>
     <row r="511" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A511" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B511" s="23" t="s">
         <v>44</v>
@@ -15683,7 +15690,7 @@
     </row>
     <row r="512" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A512" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B512" s="23" t="s">
         <v>44</v>
@@ -15705,7 +15712,7 @@
     </row>
     <row r="513" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A513" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B513" s="23" t="s">
         <v>44</v>
@@ -15727,7 +15734,7 @@
     </row>
     <row r="514" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A514" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B514" s="23" t="s">
         <v>44</v>
@@ -15749,7 +15756,7 @@
     </row>
     <row r="515" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A515" s="27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B515" s="23" t="s">
         <v>44</v>
@@ -15771,7 +15778,7 @@
     </row>
     <row r="516" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A516" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B516" s="23" t="s">
         <v>44</v>
@@ -15793,7 +15800,7 @@
     </row>
     <row r="517" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A517" s="27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B517" s="23" t="s">
         <v>44</v>
@@ -15815,7 +15822,7 @@
     </row>
     <row r="518" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A518" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B518" s="23" t="s">
         <v>44</v>
@@ -15837,7 +15844,7 @@
     </row>
     <row r="519" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A519" s="27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B519" s="23" t="s">
         <v>44</v>
@@ -15859,7 +15866,7 @@
     </row>
     <row r="520" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A520" s="27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B520" s="23" t="s">
         <v>44</v>
@@ -15881,7 +15888,7 @@
     </row>
     <row r="521" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A521" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B521" s="23" t="s">
         <v>44</v>
@@ -15903,7 +15910,7 @@
     </row>
     <row r="522" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A522" s="27" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B522" s="23" t="s">
         <v>44</v>
@@ -15925,7 +15932,7 @@
     </row>
     <row r="523" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A523" s="27" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B523" s="23" t="s">
         <v>44</v>
@@ -15947,7 +15954,7 @@
     </row>
     <row r="524" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A524" s="27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B524" s="23" t="s">
         <v>44</v>
@@ -15969,7 +15976,7 @@
     </row>
     <row r="525" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A525" s="27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B525" s="23" t="s">
         <v>44</v>
@@ -15991,7 +15998,7 @@
     </row>
     <row r="526" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A526" s="27" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B526" s="23" t="s">
         <v>44</v>
@@ -16013,7 +16020,7 @@
     </row>
     <row r="527" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A527" s="27" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B527" s="23" t="s">
         <v>44</v>
@@ -16035,7 +16042,7 @@
     </row>
     <row r="528" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A528" s="27" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B528" s="23" t="s">
         <v>44</v>
@@ -16057,7 +16064,7 @@
     </row>
     <row r="529" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A529" s="27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B529" s="23" t="s">
         <v>44</v>
@@ -16079,7 +16086,7 @@
     </row>
     <row r="530" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A530" s="27" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B530" s="23" t="s">
         <v>44</v>
@@ -16101,7 +16108,7 @@
     </row>
     <row r="531" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A531" s="27" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B531" s="23" t="s">
         <v>44</v>
@@ -16123,7 +16130,7 @@
     </row>
     <row r="532" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A532" s="27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B532" s="23" t="s">
         <v>44</v>
@@ -16145,7 +16152,7 @@
     </row>
     <row r="533" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A533" s="27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B533" s="23" t="s">
         <v>44</v>
@@ -16167,7 +16174,7 @@
     </row>
     <row r="534" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A534" s="27" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B534" s="23" t="s">
         <v>44</v>
@@ -16189,7 +16196,7 @@
     </row>
     <row r="535" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A535" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B535" s="23" t="s">
         <v>44</v>
@@ -16211,7 +16218,7 @@
     </row>
     <row r="536" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A536" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B536" s="23" t="s">
         <v>44</v>
@@ -16233,7 +16240,7 @@
     </row>
     <row r="537" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A537" s="27" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B537" s="23" t="s">
         <v>44</v>
@@ -16255,7 +16262,7 @@
     </row>
     <row r="538" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A538" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B538" s="23" t="s">
         <v>44</v>
@@ -16277,7 +16284,7 @@
     </row>
     <row r="539" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A539" s="27" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B539" s="23" t="s">
         <v>44</v>
@@ -16299,7 +16306,7 @@
     </row>
     <row r="540" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A540" s="27" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B540" s="23" t="s">
         <v>44</v>
@@ -16321,7 +16328,7 @@
     </row>
     <row r="541" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A541" s="27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B541" s="23" t="s">
         <v>44</v>
@@ -16343,7 +16350,7 @@
     </row>
     <row r="542" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A542" s="27" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B542" s="23" t="s">
         <v>44</v>
@@ -16365,7 +16372,7 @@
     </row>
     <row r="543" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A543" s="27" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B543" s="23" t="s">
         <v>44</v>
@@ -16387,7 +16394,7 @@
     </row>
     <row r="544" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A544" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B544" s="23" t="s">
         <v>44</v>
@@ -16409,7 +16416,7 @@
     </row>
     <row r="545" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A545" s="27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B545" s="23" t="s">
         <v>44</v>
@@ -16431,7 +16438,7 @@
     </row>
     <row r="546" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A546" s="27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B546" s="23" t="s">
         <v>44</v>
@@ -16453,7 +16460,7 @@
     </row>
     <row r="547" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A547" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B547" s="23" t="s">
         <v>44</v>
@@ -16475,7 +16482,7 @@
     </row>
     <row r="548" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A548" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B548" s="23" t="s">
         <v>44</v>
@@ -16497,7 +16504,7 @@
     </row>
     <row r="549" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A549" s="27" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B549" s="23" t="s">
         <v>44</v>
@@ -16519,7 +16526,7 @@
     </row>
     <row r="550" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A550" s="27" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B550" s="23" t="s">
         <v>44</v>
@@ -16541,7 +16548,7 @@
     </row>
     <row r="551" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A551" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B551" s="23" t="s">
         <v>44</v>
@@ -16563,7 +16570,7 @@
     </row>
     <row r="552" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A552" s="27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B552" s="23" t="s">
         <v>44</v>
@@ -16585,7 +16592,7 @@
     </row>
     <row r="553" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A553" s="27" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B553" s="23" t="s">
         <v>44</v>
@@ -16607,7 +16614,7 @@
     </row>
     <row r="554" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A554" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B554" s="23" t="s">
         <v>44</v>
@@ -16629,7 +16636,7 @@
     </row>
     <row r="555" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A555" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B555" s="23" t="s">
         <v>44</v>
@@ -16651,7 +16658,7 @@
     </row>
     <row r="556" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A556" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B556" s="23" t="s">
         <v>44</v>
@@ -16673,7 +16680,7 @@
     </row>
     <row r="557" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A557" s="27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B557" s="23" t="s">
         <v>44</v>
@@ -16695,7 +16702,7 @@
     </row>
     <row r="558" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A558" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B558" s="23" t="s">
         <v>44</v>
@@ -16717,7 +16724,7 @@
     </row>
     <row r="559" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A559" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B559" s="23" t="s">
         <v>44</v>
@@ -16739,7 +16746,7 @@
     </row>
     <row r="560" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A560" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B560" s="23" t="s">
         <v>44</v>
@@ -16761,7 +16768,7 @@
     </row>
     <row r="561" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A561" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B561" s="23" t="s">
         <v>44</v>
@@ -16783,7 +16790,7 @@
     </row>
     <row r="562" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A562" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B562" s="23" t="s">
         <v>44</v>
@@ -16805,7 +16812,7 @@
     </row>
     <row r="563" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A563" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B563" s="23" t="s">
         <v>44</v>
@@ -16827,7 +16834,7 @@
     </row>
     <row r="564" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A564" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B564" s="23" t="s">
         <v>44</v>
@@ -16849,7 +16856,7 @@
     </row>
     <row r="565" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A565" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B565" s="23" t="s">
         <v>44</v>
@@ -16871,7 +16878,7 @@
     </row>
     <row r="566" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A566" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B566" s="23" t="s">
         <v>44</v>
@@ -16893,7 +16900,7 @@
     </row>
     <row r="567" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A567" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B567" s="23" t="s">
         <v>44</v>
@@ -16915,7 +16922,7 @@
     </row>
     <row r="568" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A568" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B568" s="23" t="s">
         <v>44</v>
@@ -16937,20 +16944,18 @@
     </row>
     <row r="569" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A569" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B569" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C569" s="23"/>
-      <c r="D569" s="23" t="s">
-        <v>788</v>
-      </c>
+      <c r="D569" s="23"/>
       <c r="E569" s="23" t="s">
-        <v>787</v>
+        <v>43</v>
       </c>
       <c r="F569" s="23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G569" s="23" t="s">
         <v>821</v>
@@ -16961,20 +16966,20 @@
     </row>
     <row r="570" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A570" s="27" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B570" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C570" s="23" t="s">
-        <v>791</v>
-      </c>
-      <c r="D570" s="23"/>
+      <c r="C570" s="23"/>
+      <c r="D570" s="23" t="s">
+        <v>788</v>
+      </c>
       <c r="E570" s="23" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F570" s="23" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G570" s="23" t="s">
         <v>821</v>
@@ -16985,17 +16990,17 @@
     </row>
     <row r="571" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A571" s="27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B571" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C571" s="23" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D571" s="23"/>
       <c r="E571" s="23" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F571" s="23" t="s">
         <v>34</v>
@@ -17009,19 +17014,17 @@
     </row>
     <row r="572" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A572" s="27" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B572" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C572" s="23" t="s">
-        <v>797</v>
-      </c>
-      <c r="D572" s="23" t="s">
-        <v>798</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="D572" s="23"/>
       <c r="E572" s="23" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F572" s="23" t="s">
         <v>34</v>
@@ -17035,17 +17038,19 @@
     </row>
     <row r="573" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A573" s="27" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B573" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C573" s="23"/>
+      <c r="C573" s="23" t="s">
+        <v>797</v>
+      </c>
       <c r="D573" s="23" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E573" s="23" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F573" s="23" t="s">
         <v>34</v>
@@ -17059,19 +17064,17 @@
     </row>
     <row r="574" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A574" s="27" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B574" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C574" s="23" t="s">
-        <v>804</v>
-      </c>
+      <c r="C574" s="23"/>
       <c r="D574" s="23" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E574" s="23" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F574" s="23" t="s">
         <v>34</v>
@@ -17085,19 +17088,19 @@
     </row>
     <row r="575" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A575" s="27" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B575" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C575" s="23" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D575" s="23" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E575" s="23" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F575" s="23" t="s">
         <v>34</v>
@@ -17111,19 +17114,19 @@
     </row>
     <row r="576" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A576" s="27" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B576" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C576" s="23" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D576" s="23" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E576" s="23" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F576" s="23" t="s">
         <v>34</v>
@@ -17137,17 +17140,19 @@
     </row>
     <row r="577" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A577" s="27" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B577" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C577" s="23"/>
+      <c r="C577" s="23" t="s">
+        <v>812</v>
+      </c>
       <c r="D577" s="23" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E577" s="23" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F577" s="23" t="s">
         <v>34</v>
@@ -17161,31 +17166,56 @@
     </row>
     <row r="578" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A578" s="27" t="s">
+        <v>814</v>
+      </c>
+      <c r="B578" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C578" s="23"/>
+      <c r="D578" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="E578" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="F578" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G578" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="H578" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A579" s="27" t="s">
         <v>817</v>
       </c>
-      <c r="B578" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C578" s="23" t="s">
+      <c r="B579" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C579" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="D578" s="23" t="s">
+      <c r="D579" s="23" t="s">
         <v>820</v>
       </c>
-      <c r="E578" s="23" t="s">
+      <c r="E579" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="F578" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G578" s="23" t="s">
-        <v>821</v>
-      </c>
-      <c r="H578" s="28" t="s">
+      <c r="F579" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G579" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="H579" s="28" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
